--- a/branches/master/CodeSystem-cs-case-report-sections.xlsx
+++ b/branches/master/CodeSystem-cs-case-report-sections.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T06:31:27+00:00</t>
+    <t>2022-11-18T09:35:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
